--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -926,7 +926,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,6 +1021,15 @@
       <c r="I3">
         <v>1.0009999999999999</v>
       </c>
+      <c r="K3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="L3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M3">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -1044,6 +1053,15 @@
       <c r="I4">
         <v>1.0009999999999999</v>
       </c>
+      <c r="K4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="L4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M4">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -1149,15 +1167,15 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -926,7 +926,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,6 +1085,15 @@
       <c r="I5">
         <v>1.0009999999999999</v>
       </c>
+      <c r="K5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
@@ -1108,6 +1117,15 @@
       <c r="I6">
         <v>1.0009999999999999</v>
       </c>
+      <c r="K6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M6">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
@@ -1122,6 +1140,15 @@
       <c r="I7">
         <v>2.0099999999999998</v>
       </c>
+      <c r="K7">
+        <v>3.1</v>
+      </c>
+      <c r="L7">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="M7">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
@@ -1136,6 +1163,15 @@
       <c r="I8">
         <v>2.0099999999999998</v>
       </c>
+      <c r="K8">
+        <v>3.1</v>
+      </c>
+      <c r="L8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M8">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
@@ -1167,15 +1203,15 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.0019999999999998</v>
+        <v>11.212999999999999</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>11.131999999999998</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>14.321</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -926,7 +926,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,6 +1030,15 @@
       <c r="M3">
         <v>3.1</v>
       </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -1062,6 +1071,15 @@
       <c r="M4">
         <v>3.1</v>
       </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -1215,15 +1233,15 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -73,9 +73,6 @@
     <t>1D10</t>
   </si>
   <si>
-    <t>1D18</t>
-  </si>
-  <si>
     <t>1E6</t>
   </si>
   <si>
@@ -100,7 +97,10 @@
     <t>1G11</t>
   </si>
   <si>
-    <t>1G21</t>
+    <t>1D22</t>
+  </si>
+  <si>
+    <t>1G23</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,31 +969,31 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
@@ -1039,6 +1039,15 @@
       <c r="Q3">
         <v>2.0099999999999998</v>
       </c>
+      <c r="S3">
+        <v>3.1</v>
+      </c>
+      <c r="T3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="U3">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -1080,6 +1089,15 @@
       <c r="Q4">
         <v>2.0099999999999998</v>
       </c>
+      <c r="S4">
+        <v>3.1</v>
+      </c>
+      <c r="T4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U4">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -1112,6 +1130,15 @@
       <c r="M5">
         <v>2.0099999999999998</v>
       </c>
+      <c r="O5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="P5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
@@ -1144,6 +1171,15 @@
       <c r="M6">
         <v>3.1</v>
       </c>
+      <c r="O6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="P6">
+        <v>3.1</v>
+      </c>
+      <c r="Q6">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
@@ -1233,27 +1269,27 @@
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
+        <v>8.202</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9.129999999999999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>2.0019999999999998</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0109999999999997</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0109999999999997</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,6 +1048,15 @@
       <c r="U3">
         <v>2.0099999999999998</v>
       </c>
+      <c r="W3">
+        <v>3.1</v>
+      </c>
+      <c r="X3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -1098,6 +1107,15 @@
       <c r="U4">
         <v>1.0009999999999999</v>
       </c>
+      <c r="W4">
+        <v>3.1</v>
+      </c>
+      <c r="X4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y4">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -1139,6 +1157,15 @@
       <c r="Q5">
         <v>3.1</v>
       </c>
+      <c r="S5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="T5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U5">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
@@ -1180,6 +1207,15 @@
       <c r="Q6">
         <v>2.0099999999999998</v>
       </c>
+      <c r="S6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="T6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U6">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
@@ -1203,6 +1239,15 @@
       <c r="M7">
         <v>2.0099999999999998</v>
       </c>
+      <c r="S7">
+        <v>3.1</v>
+      </c>
+      <c r="T7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U7">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
@@ -1226,6 +1271,15 @@
       <c r="M8">
         <v>1.0009999999999999</v>
       </c>
+      <c r="S8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T8">
+        <v>3.1</v>
+      </c>
+      <c r="U8">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
@@ -1281,27 +1335,27 @@
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
+        <v>13.311999999999999</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>12.140999999999998</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>11.212999999999999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>3.0109999999999997</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>3.0109999999999997</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,6 +1057,15 @@
       <c r="Y3">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AA3">
+        <v>3.1</v>
+      </c>
+      <c r="AB3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -1116,6 +1125,15 @@
       <c r="Y4">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AA4">
+        <v>3.1</v>
+      </c>
+      <c r="AB4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
@@ -1359,15 +1377,15 @@
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0109999999999997</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0109999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Judge</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>1G23</t>
+  </si>
+  <si>
+    <t>1H25</t>
+  </si>
+  <si>
+    <t>1H27</t>
+  </si>
+  <si>
+    <t>1H28</t>
   </si>
 </sst>
 </file>
@@ -923,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
+    <row r="1" spans="1:33" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1007,17 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1066,8 +1084,17 @@
       <c r="AC3">
         <v>2.0099999999999998</v>
       </c>
+      <c r="AE3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1134,8 +1161,17 @@
       <c r="AC4">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AE4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AF4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1220,17 @@
       <c r="U5">
         <v>3.1</v>
       </c>
+      <c r="W5">
+        <v>3.1</v>
+      </c>
+      <c r="X5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1279,17 @@
       <c r="U6">
         <v>3.1</v>
       </c>
+      <c r="W6">
+        <v>3.1</v>
+      </c>
+      <c r="X6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1266,8 +1320,17 @@
       <c r="U7">
         <v>1.0009999999999999</v>
       </c>
+      <c r="W7">
+        <v>2.1</v>
+      </c>
+      <c r="X7">
+        <v>3.1</v>
+      </c>
+      <c r="Y7">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1298,8 +1361,17 @@
       <c r="U8">
         <v>1.0009999999999999</v>
       </c>
+      <c r="W8">
+        <v>3.1</v>
+      </c>
+      <c r="X8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1365,15 +1437,15 @@
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>12.140999999999998</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>2.0019999999999998</v>
+        <v>7.0149999999999988</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -935,7 +935,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1229,6 +1229,15 @@
       <c r="Y5">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AA5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>3.1</v>
+      </c>
+      <c r="AC5">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
@@ -1288,6 +1297,15 @@
       <c r="Y6">
         <v>2.0099999999999998</v>
       </c>
+      <c r="AA6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>3.1</v>
+      </c>
+      <c r="AC6">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
@@ -1449,15 +1467,15 @@
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>3.0109999999999997</v>
+        <v>9.2110000000000003</v>
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>3.0109999999999997</v>
+        <v>5.0129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -935,7 +935,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1238,6 +1238,15 @@
       <c r="AC5">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AE5">
+        <v>3.1</v>
+      </c>
+      <c r="AF5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
@@ -1306,6 +1315,15 @@
       <c r="AC6">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AE6">
+        <v>3.1</v>
+      </c>
+      <c r="AF6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AG6">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
@@ -1398,7 +1416,7 @@
         <v>9.129999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:AC10" si="0">SUM(D3:D8)</f>
+        <f t="shared" ref="D10:AG10" si="0">SUM(D3:D8)</f>
         <v>9.2110000000000003</v>
       </c>
       <c r="E10">
@@ -1476,6 +1494,18 @@
       <c r="AC10">
         <f t="shared" si="0"/>
         <v>5.0129999999999999</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>9.2110000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Judge</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>1H28</t>
+  </si>
+  <si>
+    <t>1I21</t>
+  </si>
+  <si>
+    <t>1I29</t>
+  </si>
+  <si>
+    <t>1I30</t>
   </si>
 </sst>
 </file>
@@ -932,15 +941,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1">
+    <row r="1" spans="1:37" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1025,17 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1111,17 @@
       <c r="AG3">
         <v>3.1</v>
       </c>
+      <c r="AI3">
+        <v>3.1</v>
+      </c>
+      <c r="AJ3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AK3">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1170,8 +1197,17 @@
       <c r="AG4">
         <v>3.1</v>
       </c>
+      <c r="AI4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>3.1</v>
+      </c>
+      <c r="AK4">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1283,17 @@
       <c r="AG5">
         <v>2.0099999999999998</v>
       </c>
+      <c r="AI5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>3.1</v>
+      </c>
+      <c r="AK5">
+        <v>1.0009999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1324,8 +1369,17 @@
       <c r="AG6">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AI6">
+        <v>3.1</v>
+      </c>
+      <c r="AJ6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1366,7 +1420,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1461,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1470,7 @@
         <v>9.129999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:AG10" si="0">SUM(D3:D8)</f>
+        <f t="shared" ref="D10:AK10" si="0">SUM(D3:D8)</f>
         <v>9.2110000000000003</v>
       </c>
       <c r="E10">
@@ -1506,6 +1560,18 @@
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>9.2110000000000003</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>10.219999999999999</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="0"/>
+        <v>9.2109999999999985</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="0"/>
+        <v>5.0129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Judge</t>
   </si>
@@ -119,6 +119,51 @@
   </si>
   <si>
     <t>1I30</t>
+  </si>
+  <si>
+    <t>2A2</t>
+  </si>
+  <si>
+    <t>2A6</t>
+  </si>
+  <si>
+    <t>2A16</t>
+  </si>
+  <si>
+    <t>2A25</t>
+  </si>
+  <si>
+    <t>2B21</t>
+  </si>
+  <si>
+    <t>2B22</t>
+  </si>
+  <si>
+    <t>2B32</t>
+  </si>
+  <si>
+    <t>2B34</t>
+  </si>
+  <si>
+    <t>2C8</t>
+  </si>
+  <si>
+    <t>2C14</t>
+  </si>
+  <si>
+    <t>2C31</t>
+  </si>
+  <si>
+    <t>2C33</t>
+  </si>
+  <si>
+    <t>2C26</t>
+  </si>
+  <si>
+    <t>2A26</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -941,15 +986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1">
+    <row r="1" spans="1:54" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,8 +1079,50 @@
       <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1120,8 +1207,50 @@
       <c r="AK3">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AM3">
+        <v>1.0001</v>
+      </c>
+      <c r="AN3">
+        <v>3.01</v>
+      </c>
+      <c r="AO3">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AP3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3">
+        <v>3.01</v>
+      </c>
+      <c r="AT3">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="AU3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AX3">
+        <v>4.01</v>
+      </c>
+      <c r="AY3">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="BA3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BB3">
+        <v>3.0009999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1206,8 +1335,50 @@
       <c r="AK4">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AM4">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>1.0001</v>
+      </c>
+      <c r="AO4">
+        <v>3.01</v>
+      </c>
+      <c r="AP4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS4">
+        <v>3.01</v>
+      </c>
+      <c r="AT4">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AV4">
+        <v>1.0001</v>
+      </c>
+      <c r="AX4">
+        <v>4.01</v>
+      </c>
+      <c r="AY4">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BB4">
+        <v>1.0000100000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1463,29 @@
       <c r="AK5">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AM5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5">
+        <v>3.01</v>
+      </c>
+      <c r="AP5">
+        <v>1.0001</v>
+      </c>
+      <c r="AQ5">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1378,8 +1570,29 @@
       <c r="AK6">
         <v>2.0099999999999998</v>
       </c>
+      <c r="AM6">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6">
+        <v>1.0001</v>
+      </c>
+      <c r="AP6">
+        <v>3.01</v>
+      </c>
+      <c r="AQ6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1419,8 +1632,17 @@
       <c r="Y7">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AN7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1460,8 +1682,27 @@
       <c r="Y8">
         <v>1.0009999999999999</v>
       </c>
+      <c r="AN8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="9" spans="1:54">
+      <c r="AN9">
+        <f>AN3+AN4</f>
+        <v>4.0100999999999996</v>
+      </c>
+      <c r="AQ9">
+        <f>AQ5+AQ6</f>
+        <v>6.1009999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1572,6 +1813,62 @@
       <c r="AK10">
         <f t="shared" si="0"/>
         <v>5.0129999999999999</v>
+      </c>
+      <c r="AM10">
+        <f>SUM(AM3:AM8)</f>
+        <v>9.1021000000000001</v>
+      </c>
+      <c r="AN10">
+        <f>SUM(AN3:AN9)</f>
+        <v>8.0201999999999991</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" ref="AN10:BB10" si="1">SUM(AO3:AO8)</f>
+        <v>9.0210999999999988</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="1"/>
+        <v>12.210099999999999</v>
+      </c>
+      <c r="AQ10">
+        <f>SUM(AQ3:AQ9)</f>
+        <v>12.201999999999998</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="1"/>
+        <v>6.02</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="1"/>
+        <v>4.0011000000000001</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="1"/>
+        <v>3.0011000000000001</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="1"/>
+        <v>8.02</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="1"/>
+        <v>5.0011000000000001</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="1"/>
+        <v>3.0001100000000003</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="1"/>
+        <v>4.00101</v>
       </c>
     </row>
   </sheetData>
